--- a/信息素养/题库.xlsx
+++ b/信息素养/题库.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\系统\桌面\信息素养\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C604A8-72B9-4B71-8A0D-FBB7E18343D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3D54DC-6E90-434A-BF9F-CF48CECB5166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="1500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="1519">
   <si>
     <t>题</t>
   </si>
@@ -356,9 +356,6 @@
     <t>你有一项作业要写，你要为此做研究。在写作业的过程中，你会突然想到一种看待问题的新方法，你觉得这是独一无二的。你提出了这个“独特”的观点，并提交了作业。然而，一两天后你会发现，几年前已经有人发表与你类似的观点。</t>
   </si>
   <si>
-    <t>请检索《新民周刊》的ISSN为</t>
-  </si>
-  <si>
     <t>1004-0641</t>
   </si>
   <si>
@@ -371,9 +368,6 @@
     <t>1009-4407</t>
   </si>
   <si>
-    <t>万方数据知识服务平台会议论文库的更新频率是</t>
-  </si>
-  <si>
     <t>每周更新</t>
   </si>
   <si>
@@ -386,9 +380,6 @@
     <t>每年更新</t>
   </si>
   <si>
-    <t>在MARC中，106字段的含义是指：</t>
-  </si>
-  <si>
     <t>物理形态</t>
   </si>
   <si>
@@ -401,9 +392,6 @@
     <t>地区代码</t>
   </si>
   <si>
-    <t>下列哪篇文章不是《融媒体时代高校图书馆信息素养教育定位思考》的参考文献？</t>
-  </si>
-  <si>
     <t>孔晔晗，高丹，彭琳，何琳.我国“双一流”高校图书馆出版服务内容调研及升级策略研究[J].国家图书馆学刊，2020，29(06):65-73.</t>
   </si>
   <si>
@@ -425,15 +413,9 @@
     <t>该画作的版权属于AI绘画软件的用户。</t>
   </si>
   <si>
-    <t>该画作经由数字工具Photoshop、Gigapixel加工。</t>
-  </si>
-  <si>
     <t>该画作以数字形态呈现。</t>
   </si>
   <si>
-    <t>以下哪一位是东京审判的法官？</t>
-  </si>
-  <si>
     <t>徐有功</t>
   </si>
   <si>
@@ -446,9 +428,6 @@
     <t>刘墉</t>
   </si>
   <si>
-    <t>报刊邮发代号短横前面的奇、偶数字分别用来表示某个省（地区）出版的杂志和报纸。《大学英语》的邮发代号是2-455，它是由()出版发行的？</t>
-  </si>
-  <si>
     <t>北京</t>
   </si>
   <si>
@@ -461,12 +440,6 @@
     <t>重庆</t>
   </si>
   <si>
-    <t>近几年，新一线城市快速崛起，与之相对应的是房价的快速增长。下列四个新一线城市中，哪个城市2015年商品房平均销售价格最高？</t>
-  </si>
-  <si>
-    <t>天津市</t>
-  </si>
-  <si>
     <t>武汉市</t>
   </si>
   <si>
@@ -491,9 +464,6 @@
     <t>网关</t>
   </si>
   <si>
-    <t>在IEEE Xplore平台上使用命令检索：标题中包含有无人机和作战任务；摘要包含区域侦查；IEEE关键词含有无线通信的论文，下列表达正确的是：</t>
-  </si>
-  <si>
     <t>"Document Title":"UAV" AND "Combat Mission" AND  "Abstract":regional reconnaissance AND "Author Keywords":Wireless communication</t>
   </si>
   <si>
@@ -509,9 +479,6 @@
     <t>以下四个ISBN号中属于法语区出版物的国际标准书号的是：</t>
   </si>
   <si>
-    <t>9782266290708</t>
-  </si>
-  <si>
     <t>9787530209554</t>
   </si>
   <si>
@@ -521,9 +488,6 @@
     <t>以上都不是</t>
   </si>
   <si>
-    <t>请在calls联合目录公共检索系统中，检索2009年，北京华艺出版社出版，作者为夏绿蒂·勃朗特的《简爱》，其对应的calls控制号是多少</t>
-  </si>
-  <si>
     <t>CAL 012010009558</t>
   </si>
   <si>
@@ -551,9 +515,6 @@
     <t>site:zhihu 儿童书桌</t>
   </si>
   <si>
-    <t>CNKI工具书收录的资料类资源不包括</t>
-  </si>
-  <si>
     <t>手册</t>
   </si>
   <si>
@@ -566,9 +527,6 @@
     <t>科技专著</t>
   </si>
   <si>
-    <t>杨杨是某科技公司工程技术部门的一名技术人员，部门最近将要研发一款人工智能产品，杨杨需要了解已申请专利的详细情况。在海外专利数据库中，按照：检索字段：主题，检索词：人工智能；并且检索字段：关键词，检索词：语言。截止申请日到2021年9月1日，以下说法错误的是（）</t>
-  </si>
-  <si>
     <t>检索结果全部都是中文结果</t>
   </si>
   <si>
@@ -581,9 +539,6 @@
     <t>以公开日排序，最新的专利发明人是RAJAKARUNA, Mundigala Arachchillage Isuru</t>
   </si>
   <si>
-    <t>检索字段为主编单位，检索词为经济，按照下载频次排序，排名第一的年鉴中，在本年鉴中搜索地域为上海，以下载量排列，第一位一共下载了（）次</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
@@ -593,12 +548,6 @@
     <t>51</t>
   </si>
   <si>
-    <t>根据中共中央办公厅、国务院办公厅印发《关于加强网络文明建设的意见》，以下哪项说法是错误的？</t>
-  </si>
-  <si>
-    <t>要加强网络空间思想引领</t>
-  </si>
-  <si>
     <t>要加强网络空间文化培育</t>
   </si>
   <si>
@@ -608,9 +557,6 @@
     <t>要禁止网络空间文明创建</t>
   </si>
   <si>
-    <t>"在《中国图书馆分类法》的大类中，""H""类表示（ ）"。</t>
-  </si>
-  <si>
     <t>政治法律</t>
   </si>
   <si>
@@ -638,9 +584,6 @@
     <t>搜狗</t>
   </si>
   <si>
-    <t>ISBN（InternationalStandardBookNumber）是国际标准图书编号，用于标识图书出版物的唯一身份识别码，请查找978-7-313-22929-8的书名是：</t>
-  </si>
-  <si>
     <t>PowerPoint课件设计与制作</t>
   </si>
   <si>
@@ -677,30 +620,9 @@
     <t>2018年，李克强出席第十二届夏季达沃斯论坛</t>
   </si>
   <si>
-    <t>第二十二届圣彼得堡国际经济论坛全会在圣彼得堡举行，国家主席习近平出席并发表题为《坚持可持续发展　共创繁荣美好世界》的致辞。</t>
-  </si>
-  <si>
     <t>李克强出席博鳌亚洲论坛2018年年会</t>
   </si>
   <si>
-    <t>以下关于我国固定资产的投资情况，哪项数据检索不到？</t>
-  </si>
-  <si>
-    <t>分地区固定资产投资</t>
-  </si>
-  <si>
-    <t>固定资产项目投资情况</t>
-  </si>
-  <si>
-    <t>固定资产项目投资项目情况</t>
-  </si>
-  <si>
-    <t>固定资产投资概况</t>
-  </si>
-  <si>
-    <t>CSSCI（2017-2018）年扩展板来源期刊目录中，按刊名音序份学科排序总共有多少种</t>
-  </si>
-  <si>
     <t>675种</t>
   </si>
   <si>
@@ -713,9 +635,6 @@
     <t>652种</t>
   </si>
   <si>
-    <t>“君问归期未有期，巴山夜雨涨秋池”。诗中的“君”指的是</t>
-  </si>
-  <si>
     <t>高堂</t>
   </si>
   <si>
@@ -767,15 +686,6 @@
     <t>我国共有地下水水源地1847个</t>
   </si>
   <si>
-    <t>我国共有地表水水源地11661处</t>
-  </si>
-  <si>
-    <t>以下哪一个不是中华人民共和国国家民族事务委员会的直属单位？</t>
-  </si>
-  <si>
-    <t>大连民族大学</t>
-  </si>
-  <si>
     <t>中国民族语言翻译中心</t>
   </si>
   <si>
@@ -785,9 +695,6 @@
     <t>上海市民族和宗教事务局</t>
   </si>
   <si>
-    <t>下列选项中哪一项在2018年被世卫组织的IARC列为1级致癌物：</t>
-  </si>
-  <si>
     <t>加工肉类</t>
   </si>
   <si>
@@ -800,9 +707,6 @@
     <t>65度以上的热饮料</t>
   </si>
   <si>
-    <t>以下哪部网络文学作品没有入选大英图书馆中文馆藏目录？</t>
-  </si>
-  <si>
     <t>《大国重工》</t>
   </si>
   <si>
@@ -2657,9 +2561,6 @@
     <t>漏捡率</t>
   </si>
   <si>
-    <t>学科分类与代码国家标准 GB/T 13745-2009中，二级学科社会心理学（19020）包含哪几个三级学科？</t>
-  </si>
-  <si>
     <t>家庭心理学</t>
   </si>
   <si>
@@ -2672,9 +2573,6 @@
     <t>医患心理学</t>
   </si>
   <si>
-    <t>以“新冠肺炎”and"防治”为主题词在中国知网网站中检索第一作者为金翠梅，并且是2020年网络首发的论文，可以得到如下信息：（）</t>
-  </si>
-  <si>
     <t>该论文题目为《新冠病毒疫苗安全性和有效性的展望》</t>
   </si>
   <si>
@@ -2690,21 +2588,6 @@
     <t>以下哪些检索系统需要先登录才能进行检索</t>
   </si>
   <si>
-    <t>专利检索及分析系统</t>
-  </si>
-  <si>
-    <t>国家重点产业专利信息服务平台</t>
-  </si>
-  <si>
-    <t>中国商标网</t>
-  </si>
-  <si>
-    <t>中国市场监管行政处罚文书网</t>
-  </si>
-  <si>
-    <t>在万方数据知识服务平台上检索期刊《中国职业技术教育》，下列关于该期刊说法正确的是？</t>
-  </si>
-  <si>
     <t>出版周期：月刊</t>
   </si>
   <si>
@@ -2717,9 +2600,6 @@
     <t>国内刊号为11-3117/G4</t>
   </si>
   <si>
-    <t>外观设计专利文献种类标识代码有</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -2732,21 +2612,6 @@
     <t>S8</t>
   </si>
   <si>
-    <t>以下哪些是国家社科基金项目中的重大项目？</t>
-  </si>
-  <si>
-    <t>新时代体育全媒体传播格局构建研究</t>
-  </si>
-  <si>
-    <t>海外藏二战中缅印战区档案整理与研究</t>
-  </si>
-  <si>
-    <t>中国传统宗族福利体系研究</t>
-  </si>
-  <si>
-    <t>医患社会心态的形成机制与治理路径研究</t>
-  </si>
-  <si>
     <t>以下哪个期刊没有曾用名？</t>
   </si>
   <si>
@@ -2765,36 +2630,15 @@
     <t>鲁绣</t>
   </si>
   <si>
-    <t>西红柿（番茄）富含维生素C、胡萝卜素、B族维生素等营养素，同时也是一种口感极佳的菜品。下列关于番茄的食用和医学描述正确的是：</t>
-  </si>
-  <si>
-    <t>曾被世界卫生组织列为十大健康食品之一。</t>
-  </si>
-  <si>
-    <t>研究结果表明，番茄红素容易从番茄制品中吸收，可作为体内抗氧化剂，可以预防癌症的发生。</t>
-  </si>
-  <si>
     <t>研究结果表明番茄红素与癌症及心血管疾病有一定相关性，但无法明确建立因果关系。而且，部分相关性与摄入量有关（需要持续大量摄入）。</t>
   </si>
   <si>
     <t>除了番茄本身的营养效果外，我们还需要充分考虑番茄种植过程所带来的影响，如：大量使用农药、催熟剂等。</t>
   </si>
   <si>
-    <t>国内可提供馆际互借与文献传递服务的三大系统是</t>
-  </si>
-  <si>
     <t>NSTL</t>
   </si>
   <si>
-    <t>NSLC</t>
-  </si>
-  <si>
-    <t>根据国家统计局2020年2月28日发布《中华人民共和国2019年国民经济和社会发展统计公报》，关于全年国内生产总值数据正确的有：（）</t>
-  </si>
-  <si>
-    <t>全年国内生产总值990865亿元</t>
-  </si>
-  <si>
     <t>全年国内生产总值比上年增长6.1%</t>
   </si>
   <si>
@@ -2816,9 +2660,6 @@
     <t>《综合卷》分三篇：第一篇为“综合篇”，第二篇为“企业篇”，第三篇为“文化及相关产业篇”。</t>
   </si>
   <si>
-    <t>甘肃武威是一座有着文化底蕴的城市，“一马跃古今，一窟传千年，一碑显奇迹，一庙儒风盛”，其指的是武威的哪些著名景点？</t>
-  </si>
-  <si>
     <t>东汉铜奔马</t>
   </si>
   <si>
@@ -4014,9 +3855,6 @@
   </si>
   <si>
     <t>周建芳</t>
-  </si>
-  <si>
-    <t>2020年国家自然科学基金支持的“智慧教学”研究的相关文献有？</t>
   </si>
   <si>
     <t>基于研究性学习的数字图像处理课程教学改革</t>
@@ -4579,6 +4417,298 @@
   <si>
     <t>关于日本福岛核污染水的处理，国际原子能机构IAEA对日本福岛核电站污水处理的审核报告中提到了5种解决方案，选择控制排放入海的方案原因是：</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请检索《新民周刊》的ISSN为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万方数据知识服务平台会议论文库的更新频率是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在MARC中，106字段的含义是指：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下列哪篇文章不是《融媒体时代高校图书馆信息素养教育定位思考》的参考文献？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该画作经由数字工具Photoshop、Gigapixel加工。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪一位是东京审判的法官？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报刊邮发代号短横前面的奇、偶数字分别用来表示某个省（地区）出版的杂志和报纸。《大学英语》的邮发代号是2-455，它是由()出版发行的？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近几年，新一线城市快速崛起，与之相对应的是房价的快速增长。下列四个新一线城市中，哪个城市2015年商品房平均销售价格最高？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在IEEE Xplore平台上使用命令检索：标题中包含有无人机和作战任务；摘要包含区域侦查；IEEE关键词含有无线通信的论文，下列表达正确的是：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9782266290708</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下四个ISBN号中属于法语区出版物的国际标准书号的是：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请在calls联合目录公共检索系统中，检索2009年，北京华艺出版社出版，作者为夏绿蒂·勃朗特的《简爱》，其对应的calls控制号是多少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要利用百度检索来自知乎网站中有关“儿童书桌”的信息，在百度搜索框里输入的正确检索式应该是（ ）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>site:zhihu.com 儿童书桌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNKI工具书收录的资料类资源不包括</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨杨是某科技公司工程技术部门的一名技术人员，部门最近将要研发一款人工智能产品，杨杨需要了解已申请专利的详细情况。在海外专利数据库中，按照：检索字段：主题，检索词：人工智能；并且检索字段：关键词，检索词：语言。截止申请日到2021年9月1日，以下说法错误的是（）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索字段为主编单位，检索词为经济，按照下载频次排序，排名第一的年鉴中，在本年鉴中搜索地域为上海，以下载量排列，第一位一共下载了（）次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据中共中央办公厅、国务院办公厅印发《关于加强网络文明建设的意见》，以下哪项说法是错误的？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要加强网络空间思想引领</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"在《中国图书馆分类法》的大类中，""H""类表示（ ）"。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISBN（InternationalStandardBookNumber）是国际标准图书编号，用于标识图书出版物的唯一身份识别码，请查找978-7-313-22929-8的书名是：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年10月14日，习近平出席亚太经合组织第二十五次领导人非正式会议并对越南、老挝进行国事访问</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二十二届圣彼得堡国际经济论坛全会在圣彼得堡举行，国家主席习近平出席并发表题为《坚持可持续发展　共创繁荣美好世界》的致辞。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产项目投资项目情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下关于我国固定资产的投资情况，哪项数据检索不到？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分地区固定资产投资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产项目投资情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产投资概况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSSCI（2017-2018）年扩展板来源期刊目录中，按刊名音序份学科排序总共有多少种</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“君问归期未有期，巴山夜雨涨秋池”。诗中的“君”指的是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据第一次全国水利普查公报，以下描述错误的是？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我国共有地下水水源地1847个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我国共有地表水水源地11661处</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪一个不是中华人民共和国国家民族事务委员会的直属单位？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大连民族大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下列选项中哪一项在2018年被世卫组织的IARC列为1级致癌物：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪部网络文学作品没有入选大英图书馆中文馆藏目录？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年国家自然科学基金支持的“智慧教学”研究的相关文献有？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科分类与代码国家标准 GB/T 13745-2009中，二级学科社会心理学（19020）包含哪几个三级学科？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>以“新冠肺炎”and"防治”为主题词在中国知网网站中检索第一作者为金翠梅，并且是2020年网络首发的论文，可以得到如下信息：（）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利检索及分析系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国商标网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国市场监管行政处罚文书网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家重点产业专利信息服务平台</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在万方数据知识服务平台上检索期刊《中国职业技术教育》，下列关于该期刊说法正确的是？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CD </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观设计专利文献种类标识代码有</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪些是国家社科基金项目中的重大项目？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新时代体育全媒体传播格局构建研究</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外藏二战中缅印战区档案整理与研究</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国传统宗族福利体系研究</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>医患社会心态的形成机制与治理路径研究</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当代艺术</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创意与设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>海峡人文学刊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众文艺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿（番茄）富含维生素C、胡萝卜素、B族维生素等营养素，同时也是一种口感极佳的菜品。下列关于番茄的食用和医学描述正确的是：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾被世界卫生组织列为十大健康食品之一。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究结果表明，番茄红素容易从番茄制品中吸收，可作为体内抗氧化剂，可以预防癌症的发生。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内可提供馆际互借与文献传递服务的三大系统是</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据国家统计局2020年2月28日发布《中华人民共和国2019年国民经济和社会发展统计公报》，关于全年国内生产总值数据正确的有：（）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全年国内生产总值990865亿元</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于第四次全国经济普查，说法正确的是？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全书共三卷四册</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃武威是一座有着文化底蕴的城市，“一马跃古今，一窟传千年，一碑显奇迹，一庙儒风盛”，其指的是武威的哪些著名景点？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4667,7 +4797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4682,6 +4812,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4961,9 +5100,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106:XFD106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -4995,7 +5134,7 @@
     </row>
     <row r="2" spans="1:6" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1455</v>
+        <v>1401</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -5007,38 +5146,38 @@
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1454</v>
+        <v>1400</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1461</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1457</v>
+        <v>1403</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1458</v>
+        <v>1404</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1459</v>
+        <v>1405</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1460</v>
+        <v>1406</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1462</v>
+        <v>1408</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1461</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1464</v>
+        <v>1410</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1463</v>
+        <v>1409</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -5050,12 +5189,12 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1465</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1466</v>
+        <v>1412</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -5070,12 +5209,12 @@
         <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1456</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1467</v>
+        <v>1413</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -5090,12 +5229,12 @@
         <v>20</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1461</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>1468</v>
+        <v>1414</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -5110,12 +5249,12 @@
         <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1456</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>1469</v>
+        <v>1415</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
@@ -5130,12 +5269,12 @@
         <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1461</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>1470</v>
+        <v>1416</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>29</v>
@@ -5150,15 +5289,15 @@
         <v>32</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1461</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>1471</v>
+        <v>1417</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1472</v>
+        <v>1418</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>33</v>
@@ -5170,12 +5309,12 @@
         <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1461</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>1473</v>
+        <v>1419</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>36</v>
@@ -5190,12 +5329,12 @@
         <v>39</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1456</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1474</v>
+        <v>1420</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>41</v>
@@ -5210,32 +5349,32 @@
         <v>44</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1475</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>1476</v>
+        <v>1422</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1477</v>
+        <v>1423</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1478</v>
+        <v>1424</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1479</v>
+        <v>1425</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1456</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>1480</v>
+        <v>1426</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>46</v>
@@ -5250,12 +5389,12 @@
         <v>49</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1465</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>1481</v>
+        <v>1427</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>50</v>
@@ -5270,12 +5409,12 @@
         <v>53</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1465</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1482</v>
+        <v>1428</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>55</v>
@@ -5290,7 +5429,7 @@
         <v>58</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1475</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
@@ -5298,24 +5437,24 @@
         <v>59</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1483</v>
+        <v>1429</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1484</v>
+        <v>1430</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1485</v>
+        <v>1431</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1486</v>
+        <v>1432</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1465</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1487</v>
+        <v>1433</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>60</v>
@@ -5330,32 +5469,32 @@
         <v>63</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1475</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1488</v>
+        <v>1434</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1489</v>
+        <v>1435</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1490</v>
+        <v>1436</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1491</v>
+        <v>1437</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1461</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>1492</v>
+        <v>1438</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>65</v>
@@ -5370,12 +5509,12 @@
         <v>68</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1461</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1493</v>
+        <v>1439</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>69</v>
@@ -5392,7 +5531,7 @@
     </row>
     <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1494</v>
+        <v>1440</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>73</v>
@@ -5407,7 +5546,7 @@
         <v>76</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1465</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="63" x14ac:dyDescent="0.2">
@@ -5427,12 +5566,12 @@
         <v>81</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1456</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>1495</v>
+        <v>1441</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>82</v>
@@ -5449,7 +5588,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1496</v>
+        <v>1442</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>86</v>
@@ -5464,12 +5603,12 @@
         <v>89</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1461</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1497</v>
+        <v>1443</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>90</v>
@@ -5484,12 +5623,12 @@
         <v>93</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1475</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1498</v>
+        <v>1444</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>94</v>
@@ -5504,12 +5643,12 @@
         <v>97</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>1461</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1499</v>
+        <v>1445</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>98</v>
@@ -5534,696 +5673,765 @@
       <c r="C29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="F29" s="3" t="s">
+        <v>1402</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="3" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="D31" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="F31" s="3" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="F32" s="3" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="63" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="63" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="E33" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="F33" s="3" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="63" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="D34" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="63" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="F34" s="3" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F35" s="3" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="F36" s="3" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="2" t="s">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="F38" s="3" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="63" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    <row r="40" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F40" s="3" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="63" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="F41" s="3" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="D42" s="5" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="F42" s="3" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="C43" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="F43" s="3" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="2" t="s">
+    </row>
+    <row r="45" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="C45" s="2">
         <v>78</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="F49" s="3" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="F50" s="3" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="63" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="B51" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="D51" s="5" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="F51" s="3" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C53" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F53" s="3" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D49" s="2" t="s">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="63" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D56" s="2" t="s">
+    </row>
+    <row r="63" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D57" s="2" t="s">
+    </row>
+    <row r="64" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="189" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>29</v>
@@ -6240,398 +6448,398 @@
     </row>
     <row r="71" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="B94" s="2">
         <v>2012</v>
@@ -6648,24 +6856,24 @@
     </row>
     <row r="95" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="B96" s="2">
         <v>162.41</v>
@@ -6682,75 +6890,75 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="B101" s="2">
         <v>25500</v>
@@ -6767,398 +6975,398 @@
     </row>
     <row r="102" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>533</v>
+        <v>501</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>543</v>
+        <v>511</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="126" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="B125" s="2">
         <v>2005</v>
@@ -7175,41 +7383,41 @@
     </row>
     <row r="126" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>554</v>
+        <v>522</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>556</v>
+        <v>524</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="B127" s="2">
         <v>7879562</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>558</v>
+        <v>526</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>560</v>
+        <v>528</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>561</v>
+        <v>529</v>
       </c>
       <c r="B128" s="2">
         <v>996</v>
@@ -7226,70 +7434,70 @@
     </row>
     <row r="129" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>563</v>
+        <v>531</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>564</v>
+        <v>532</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>565</v>
+        <v>533</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>566</v>
+        <v>534</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>570</v>
+        <v>538</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>571</v>
+        <v>539</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>572</v>
+        <v>540</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>573</v>
+        <v>541</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>574</v>
+        <v>542</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>575</v>
+        <v>543</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>576</v>
+        <v>544</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>581</v>
+        <v>549</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="110.25" x14ac:dyDescent="0.2">
@@ -7300,30 +7508,30 @@
         <v>103</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>584</v>
+        <v>552</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>587</v>
+        <v>555</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>588</v>
+        <v>556</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
@@ -7331,55 +7539,55 @@
         <v>54</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>589</v>
+        <v>557</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>590</v>
+        <v>558</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>591</v>
+        <v>559</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>592</v>
+        <v>560</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>595</v>
+        <v>563</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>596</v>
+        <v>564</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>597</v>
+        <v>565</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>599</v>
+        <v>567</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>600</v>
+        <v>568</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>603</v>
+        <v>571</v>
       </c>
       <c r="B138" s="2">
         <v>861</v>
@@ -7396,126 +7604,126 @@
     </row>
     <row r="139" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>605</v>
+        <v>573</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>606</v>
+        <v>574</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>609</v>
+        <v>577</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>611</v>
+        <v>579</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>612</v>
+        <v>580</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>613</v>
+        <v>581</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>615</v>
+        <v>583</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>619</v>
+        <v>587</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>620</v>
+        <v>588</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>621</v>
+        <v>589</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>623</v>
+        <v>591</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>624</v>
+        <v>592</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>625</v>
+        <v>593</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>626</v>
+        <v>594</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>628</v>
+        <v>596</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>629</v>
+        <v>597</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>630</v>
+        <v>598</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>631</v>
+        <v>599</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>632</v>
+        <v>600</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>633</v>
+        <v>601</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>634</v>
+        <v>602</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>635</v>
+        <v>603</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>637</v>
+        <v>605</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>638</v>
+        <v>606</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>639</v>
+        <v>607</v>
       </c>
       <c r="B146" s="2">
         <v>38222.300000000003</v>
@@ -7532,143 +7740,143 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>640</v>
+        <v>608</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>641</v>
+        <v>609</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>642</v>
+        <v>610</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>643</v>
+        <v>611</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>644</v>
+        <v>612</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>645</v>
+        <v>613</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>647</v>
+        <v>615</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>648</v>
+        <v>616</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>649</v>
+        <v>617</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>651</v>
+        <v>619</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>652</v>
+        <v>620</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>653</v>
+        <v>621</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>654</v>
+        <v>622</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>655</v>
+        <v>623</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>657</v>
+        <v>625</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>658</v>
+        <v>626</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>660</v>
+        <v>628</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>662</v>
+        <v>630</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>663</v>
+        <v>631</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>664</v>
+        <v>632</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>665</v>
+        <v>633</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>668</v>
+        <v>636</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>669</v>
+        <v>637</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>670</v>
+        <v>638</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>671</v>
+        <v>639</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>675</v>
+        <v>643</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="B155" s="2">
         <v>65</v>
@@ -7685,72 +7893,72 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>677</v>
+        <v>645</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>679</v>
+        <v>647</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>681</v>
+        <v>649</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>682</v>
+        <v>650</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>683</v>
+        <v>651</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>685</v>
+        <v>653</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>686</v>
+        <v>654</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>687</v>
+        <v>655</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>689</v>
+        <v>657</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>690</v>
+        <v>658</v>
       </c>
       <c r="B160" s="2">
         <v>35.6</v>
@@ -7767,7 +7975,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>691</v>
+        <v>659</v>
       </c>
       <c r="B161" s="2">
         <v>3443000733</v>
@@ -7784,92 +7992,92 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>692</v>
+        <v>660</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>694</v>
+        <v>662</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>695</v>
+        <v>663</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>696</v>
+        <v>664</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>697</v>
+        <v>665</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>698</v>
+        <v>666</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>699</v>
+        <v>667</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>701</v>
+        <v>669</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>705</v>
+        <v>673</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>706</v>
+        <v>674</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>707</v>
+        <v>675</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>708</v>
+        <v>676</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>708</v>
+        <v>676</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>709</v>
+        <v>677</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>710</v>
+        <v>678</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>713</v>
+        <v>681</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>714</v>
+        <v>682</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>715</v>
+        <v>683</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>716</v>
+        <v>684</v>
       </c>
       <c r="B167" s="2">
         <v>8226</v>
@@ -7886,58 +8094,58 @@
     </row>
     <row r="168" spans="1:5" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>717</v>
+        <v>685</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>718</v>
+        <v>686</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>719</v>
+        <v>687</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>721</v>
+        <v>689</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>722</v>
+        <v>690</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>723</v>
+        <v>691</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>724</v>
+        <v>692</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>725</v>
+        <v>693</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>726</v>
+        <v>694</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>727</v>
+        <v>695</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>728</v>
+        <v>696</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>729</v>
+        <v>697</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>729</v>
+        <v>697</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>730</v>
+        <v>698</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>731</v>
+        <v>699</v>
       </c>
       <c r="B171" s="2">
         <v>15000</v>
@@ -7954,7 +8162,7 @@
     </row>
     <row r="172" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>732</v>
+        <v>700</v>
       </c>
       <c r="B172" s="2">
         <v>2006</v>
@@ -7971,143 +8179,143 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>734</v>
+        <v>702</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>736</v>
+        <v>704</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>737</v>
+        <v>705</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>738</v>
+        <v>706</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>739</v>
+        <v>707</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>740</v>
+        <v>708</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>741</v>
+        <v>709</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>742</v>
+        <v>710</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>743</v>
+        <v>711</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>744</v>
+        <v>712</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>745</v>
+        <v>713</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>746</v>
+        <v>714</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>747</v>
+        <v>715</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>748</v>
+        <v>716</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>749</v>
+        <v>717</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>750</v>
+        <v>718</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>751</v>
+        <v>719</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>752</v>
+        <v>720</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>753</v>
+        <v>721</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>754</v>
+        <v>722</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>755</v>
+        <v>723</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>756</v>
+        <v>724</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>757</v>
+        <v>725</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>758</v>
+        <v>726</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>759</v>
+        <v>727</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>760</v>
+        <v>728</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>761</v>
+        <v>729</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>762</v>
+        <v>730</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>763</v>
+        <v>731</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>764</v>
+        <v>732</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>765</v>
+        <v>733</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>766</v>
+        <v>734</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>768</v>
+        <v>736</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>769</v>
+        <v>737</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>770</v>
+        <v>738</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>771</v>
+        <v>739</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>772</v>
+        <v>740</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>773</v>
+        <v>741</v>
       </c>
       <c r="B181" s="2">
         <v>2014</v>
@@ -8124,19 +8332,19 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>774</v>
+        <v>742</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>775</v>
+        <v>743</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>777</v>
+        <v>745</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>778</v>
+        <v>746</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
@@ -8144,123 +8352,123 @@
         <v>54</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>779</v>
+        <v>747</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>781</v>
+        <v>749</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>782</v>
+        <v>750</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>783</v>
+        <v>751</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>784</v>
+        <v>752</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>785</v>
+        <v>753</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>787</v>
+        <v>755</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>788</v>
+        <v>756</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>789</v>
+        <v>757</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>790</v>
+        <v>758</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>791</v>
+        <v>759</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>792</v>
+        <v>760</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>793</v>
+        <v>761</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>794</v>
+        <v>762</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>795</v>
+        <v>763</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>796</v>
+        <v>764</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>797</v>
+        <v>765</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>798</v>
+        <v>766</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>799</v>
+        <v>767</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>800</v>
+        <v>768</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>800</v>
+        <v>768</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>801</v>
+        <v>769</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>802</v>
+        <v>770</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>803</v>
+        <v>771</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>804</v>
+        <v>772</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>806</v>
+        <v>774</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>807</v>
+        <v>775</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>808</v>
+        <v>776</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>809</v>
+        <v>777</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>810</v>
+        <v>778</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="126" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>811</v>
+        <v>779</v>
       </c>
       <c r="B190" s="2">
         <v>2005</v>
@@ -8277,7 +8485,7 @@
     </row>
     <row r="191" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>812</v>
+        <v>780</v>
       </c>
       <c r="B191" s="2">
         <v>2010</v>
@@ -8297,7 +8505,7 @@
         <v>9</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>813</v>
+        <v>781</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>10</v>
@@ -8311,70 +8519,70 @@
     </row>
     <row r="193" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>814</v>
+        <v>782</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>815</v>
+        <v>783</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>816</v>
+        <v>784</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>817</v>
+        <v>785</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>818</v>
+        <v>786</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>819</v>
+        <v>787</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>820</v>
+        <v>788</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>821</v>
+        <v>789</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>822</v>
+        <v>790</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>823</v>
+        <v>791</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>824</v>
+        <v>792</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>825</v>
+        <v>793</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>827</v>
+        <v>795</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>828</v>
+        <v>796</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>829</v>
+        <v>797</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>830</v>
+        <v>798</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>831</v>
+        <v>799</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>832</v>
+        <v>800</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
@@ -8396,7 +8604,7 @@
     </row>
     <row r="198" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B198" s="2">
         <v>9782266290708</v>
@@ -8408,148 +8616,148 @@
         <v>9781108647533</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>833</v>
+        <v>801</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>834</v>
+        <v>802</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>835</v>
+        <v>803</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>836</v>
+        <v>804</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>837</v>
+        <v>805</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>838</v>
+        <v>806</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>839</v>
+        <v>807</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>840</v>
+        <v>808</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>841</v>
+        <v>809</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>842</v>
+        <v>810</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>634</v>
+        <v>602</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>843</v>
+        <v>811</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>637</v>
+        <v>605</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>638</v>
+        <v>606</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>844</v>
+        <v>812</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>845</v>
+        <v>813</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>846</v>
+        <v>814</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>847</v>
+        <v>815</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>848</v>
+        <v>816</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>849</v>
+        <v>817</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>850</v>
+        <v>818</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>851</v>
+        <v>819</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>852</v>
+        <v>820</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>853</v>
+        <v>821</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>854</v>
+        <v>822</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>855</v>
+        <v>823</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>856</v>
+        <v>824</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>857</v>
+        <v>825</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>858</v>
+        <v>826</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>859</v>
+        <v>827</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>860</v>
+        <v>828</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>861</v>
+        <v>829</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>862</v>
+        <v>830</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>863</v>
+        <v>831</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>864</v>
+        <v>832</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>865</v>
+        <v>833</v>
       </c>
       <c r="B207" s="2">
         <v>45374</v>
@@ -8566,36 +8774,36 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>866</v>
+        <v>834</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>867</v>
+        <v>835</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>868</v>
+        <v>836</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>869</v>
+        <v>837</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>870</v>
+        <v>838</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>871</v>
+        <v>839</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>675</v>
+        <v>643</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>872</v>
+        <v>840</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>873</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -8608,9 +8816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -8641,1853 +8849,1889 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>877</v>
+      <c r="A2" s="6" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>844</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>878</v>
+        <v>845</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1486</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>879</v>
+      <c r="A3" s="6" t="s">
+        <v>1487</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>881</v>
+        <v>846</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>847</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>883</v>
+        <v>848</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1488</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>888</v>
+        <v>850</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1488</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>889</v>
+      <c r="A5" s="6" t="s">
+        <v>1493</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>890</v>
+        <v>851</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>893</v>
+        <v>852</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1494</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>898</v>
+      <c r="A6" s="6" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>903</v>
+      <c r="A7" s="6" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>540</v>
+        <v>859</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1486</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>908</v>
+        <v>860</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>863</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>909</v>
+        <v>864</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1486</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="63" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>914</v>
+      <c r="A10" s="6" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>663</v>
+      <c r="A11" s="6" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1513</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>922</v>
+      <c r="A12" s="6" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>923</v>
+      <c r="A13" s="6" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>1517</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>924</v>
+        <v>872</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>925</v>
+        <v>873</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>926</v>
+        <v>874</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>931</v>
+      <c r="A14" s="6" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>932</v>
+        <v>879</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>933</v>
+        <v>880</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>934</v>
+        <v>881</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>935</v>
+        <v>882</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>936</v>
+        <v>883</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>937</v>
+        <v>884</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>938</v>
+        <v>885</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>939</v>
+        <v>886</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>940</v>
+        <v>887</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>941</v>
+        <v>888</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>942</v>
+        <v>889</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>943</v>
+        <v>890</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>944</v>
+        <v>891</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>945</v>
+        <v>892</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>946</v>
+        <v>893</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>947</v>
+        <v>894</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>948</v>
+        <v>895</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>949</v>
+        <v>896</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>950</v>
+        <v>897</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>951</v>
+        <v>898</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>952</v>
+        <v>899</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>953</v>
+        <v>900</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>954</v>
+        <v>901</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>955</v>
+        <v>902</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>956</v>
+        <v>903</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>957</v>
+        <v>904</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>958</v>
+        <v>905</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>959</v>
+        <v>906</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>960</v>
+        <v>907</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>961</v>
+        <v>908</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>962</v>
+        <v>909</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>963</v>
+        <v>910</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>964</v>
+        <v>911</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>965</v>
+        <v>912</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>966</v>
+        <v>913</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>967</v>
+        <v>914</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>968</v>
+        <v>915</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>969</v>
+        <v>916</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>970</v>
+        <v>917</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>971</v>
+        <v>918</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>972</v>
+        <v>919</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>973</v>
+        <v>920</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>974</v>
+        <v>921</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>975</v>
+        <v>922</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>976</v>
+        <v>923</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>977</v>
+        <v>924</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>978</v>
+        <v>925</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>979</v>
+        <v>926</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>980</v>
+        <v>927</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>981</v>
+        <v>928</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>982</v>
+        <v>929</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>983</v>
+        <v>930</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>984</v>
+        <v>931</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>985</v>
+        <v>932</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>986</v>
+        <v>933</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>987</v>
+        <v>934</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>988</v>
+        <v>935</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>989</v>
+        <v>936</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>990</v>
+        <v>937</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>991</v>
+        <v>938</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>992</v>
+        <v>939</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>993</v>
+        <v>940</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>994</v>
+        <v>941</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>995</v>
+        <v>942</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>996</v>
+        <v>943</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>997</v>
+        <v>944</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>998</v>
+        <v>945</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>999</v>
+        <v>946</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1000</v>
+        <v>947</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1001</v>
+        <v>948</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1002</v>
+        <v>949</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1003</v>
+        <v>950</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1004</v>
+        <v>951</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1005</v>
+        <v>952</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1006</v>
+        <v>953</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1007</v>
+        <v>954</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1008</v>
+        <v>955</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1009</v>
+        <v>956</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1010</v>
+        <v>957</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1011</v>
+        <v>958</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1012</v>
+        <v>959</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1013</v>
+        <v>960</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1014</v>
+        <v>961</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1015</v>
+        <v>962</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1016</v>
+        <v>963</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1017</v>
+        <v>964</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1018</v>
+        <v>965</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1019</v>
+        <v>966</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1020</v>
+        <v>967</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1021</v>
+        <v>968</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1022</v>
+        <v>969</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1023</v>
+        <v>970</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1024</v>
+        <v>971</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1025</v>
+        <v>972</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1026</v>
+        <v>973</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1027</v>
+        <v>974</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1028</v>
+        <v>975</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>1029</v>
+        <v>976</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1030</v>
+        <v>977</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1031</v>
+        <v>978</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1032</v>
+        <v>979</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1033</v>
+        <v>980</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>1034</v>
+        <v>981</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1035</v>
+        <v>982</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1036</v>
+        <v>983</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1037</v>
+        <v>984</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1038</v>
+        <v>985</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>1039</v>
+        <v>986</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>790</v>
+        <v>758</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>792</v>
+        <v>760</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1040</v>
+        <v>987</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1041</v>
+        <v>988</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>1042</v>
+        <v>989</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1043</v>
+        <v>990</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1044</v>
+        <v>991</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1045</v>
+        <v>992</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1046</v>
+        <v>993</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1047</v>
+        <v>994</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1048</v>
+        <v>995</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>1049</v>
+        <v>996</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1050</v>
+        <v>997</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>1051</v>
+        <v>998</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1052</v>
+        <v>999</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1053</v>
+        <v>1000</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>1054</v>
+        <v>1001</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1055</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>1056</v>
+        <v>1003</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1057</v>
+        <v>1004</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1058</v>
+        <v>1005</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1059</v>
+        <v>1006</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1060</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1061</v>
+        <v>1008</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1062</v>
+        <v>1009</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>1063</v>
+        <v>1010</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1064</v>
+        <v>1011</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1065</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>1066</v>
+        <v>1013</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1067</v>
+        <v>1014</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1068</v>
+        <v>1015</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>1069</v>
+        <v>1016</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1070</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1071</v>
+        <v>1018</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1072</v>
+        <v>1019</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1073</v>
+        <v>1020</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1074</v>
+        <v>1021</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1075</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>1076</v>
+        <v>1023</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1077</v>
+        <v>1024</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1078</v>
+        <v>1025</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>1079</v>
+        <v>1026</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1080</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1081</v>
+        <v>1028</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1082</v>
+        <v>1029</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>1083</v>
+        <v>1030</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1084</v>
+        <v>1031</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1085</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1086</v>
+        <v>1033</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1087</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1088</v>
+        <v>1035</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1089</v>
+        <v>1036</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1090</v>
+        <v>1037</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1091</v>
+        <v>1038</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1092</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1093</v>
+        <v>1040</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1094</v>
+        <v>1041</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1095</v>
+        <v>1042</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1096</v>
+        <v>1043</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1097</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>1098</v>
+        <v>1045</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1099</v>
+        <v>1046</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1100</v>
+        <v>1047</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1101</v>
+        <v>1048</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1102</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1103</v>
+        <v>1050</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1104</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1105</v>
+        <v>1052</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1106</v>
+        <v>1053</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1107</v>
+        <v>1054</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1108</v>
+        <v>1055</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1109</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1110</v>
+        <v>1057</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>660</v>
+        <v>628</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1111</v>
+        <v>1058</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>1112</v>
+        <v>1059</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>1113</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>1114</v>
+        <v>1061</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1115</v>
+        <v>1062</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1116</v>
+        <v>1063</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1117</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>1118</v>
+        <v>1065</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1119</v>
+        <v>1066</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>992</v>
+        <v>939</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1120</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>1121</v>
+        <v>1068</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1122</v>
+        <v>1069</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1123</v>
+        <v>1070</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1124</v>
+        <v>1071</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1125</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>1126</v>
+        <v>1073</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>1127</v>
+        <v>1074</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1128</v>
+        <v>1075</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1129</v>
+        <v>1076</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>1130</v>
+        <v>1077</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>1131</v>
+        <v>1078</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1132</v>
+        <v>1079</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1133</v>
+        <v>1080</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>1134</v>
+        <v>1081</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1135</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>1136</v>
+        <v>1083</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1137</v>
+        <v>1084</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1138</v>
+        <v>1085</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1139</v>
+        <v>1086</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1140</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>1141</v>
+        <v>1088</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1142</v>
+        <v>1089</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1143</v>
+        <v>1090</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1144</v>
+        <v>1091</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1145</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>1146</v>
+        <v>1093</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1147</v>
+        <v>1094</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1148</v>
+        <v>1095</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1149</v>
+        <v>1096</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1072</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>1150</v>
+        <v>1097</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1151</v>
+        <v>1098</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1152</v>
+        <v>1099</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1153</v>
+        <v>1100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1154</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>1155</v>
+        <v>1102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1156</v>
+        <v>1103</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1157</v>
+        <v>1104</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1158</v>
+        <v>1105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1159</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>1160</v>
+        <v>1107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1161</v>
+        <v>1108</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>1162</v>
+        <v>1109</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>1163</v>
+        <v>1110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1164</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>1165</v>
+        <v>1112</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1166</v>
+        <v>1113</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1167</v>
+        <v>1114</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1168</v>
+        <v>1115</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1169</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>1170</v>
+        <v>1117</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1171</v>
+        <v>1118</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>1172</v>
+        <v>1119</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>1173</v>
+        <v>1120</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>1174</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>1175</v>
+        <v>1122</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1176</v>
+        <v>1123</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1177</v>
+        <v>1124</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1178</v>
+        <v>1125</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1179</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>1180</v>
+        <v>1127</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1181</v>
+        <v>1128</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1182</v>
+        <v>1129</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1183</v>
+        <v>1130</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1184</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>1185</v>
+        <v>1132</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1186</v>
+        <v>1133</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1187</v>
+        <v>1134</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1188</v>
+        <v>1135</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1189</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>1190</v>
+        <v>1137</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1191</v>
+        <v>1138</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>1192</v>
+        <v>1139</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>1193</v>
+        <v>1140</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1194</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>629</v>
+        <v>597</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>923</v>
+        <v>871</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>924</v>
+        <v>872</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>924</v>
+        <v>872</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1195</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>1196</v>
+        <v>1143</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1197</v>
+        <v>1144</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1198</v>
+        <v>1145</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1199</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>1200</v>
+        <v>1147</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1201</v>
+        <v>1148</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1202</v>
+        <v>1149</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1203</v>
+        <v>1150</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1204</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>1205</v>
+        <v>1152</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1206</v>
+        <v>1153</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1207</v>
+        <v>1154</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1208</v>
+        <v>1155</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1209</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>1210</v>
+        <v>1157</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1211</v>
+        <v>1158</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1212</v>
+        <v>1159</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1213</v>
+        <v>1160</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1214</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>1215</v>
+        <v>1162</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1216</v>
+        <v>1163</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1217</v>
+        <v>1164</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1218</v>
+        <v>1165</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1219</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>1220</v>
+        <v>1167</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1221</v>
+        <v>1168</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1222</v>
+        <v>1169</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1223</v>
+        <v>1170</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1224</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>1225</v>
+        <v>1172</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1226</v>
+        <v>1173</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1202</v>
+        <v>1149</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1203</v>
+        <v>1150</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1204</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>1227</v>
+        <v>1174</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1228</v>
+        <v>1175</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1229</v>
+        <v>1176</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1230</v>
+        <v>1177</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1231</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>1232</v>
+        <v>1179</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1082</v>
+        <v>1029</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1083</v>
+        <v>1030</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1084</v>
+        <v>1031</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1085</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>1233</v>
+        <v>1180</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1234</v>
+        <v>1181</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1235</v>
+        <v>1182</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1236</v>
+        <v>1183</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1237</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>1238</v>
+        <v>1185</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1239</v>
+        <v>1186</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1240</v>
+        <v>1187</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1241</v>
+        <v>1188</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1242</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>1071</v>
+        <v>1018</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1243</v>
+        <v>1190</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1244</v>
+        <v>1191</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1245</v>
+        <v>1192</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1246</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>1247</v>
+        <v>1194</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1248</v>
+        <v>1195</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1249</v>
+        <v>1196</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1250</v>
+        <v>1197</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1251</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>1252</v>
+        <v>1199</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1253</v>
+        <v>1200</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1254</v>
+        <v>1201</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1255</v>
+        <v>1202</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1256</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>1257</v>
+        <v>1204</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1258</v>
+        <v>1205</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1259</v>
+        <v>1206</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1260</v>
+        <v>1207</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1261</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>1088</v>
+        <v>1035</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1262</v>
+        <v>1209</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1263</v>
+        <v>1210</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1264</v>
+        <v>1211</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1265</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>1266</v>
+        <v>1213</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1267</v>
+        <v>1214</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1268</v>
+        <v>1215</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1269</v>
+        <v>1216</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1270</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>968</v>
+        <v>915</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1271</v>
+        <v>1218</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1272</v>
+        <v>1219</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1273</v>
+        <v>1220</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1274</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>1275</v>
+        <v>1222</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1276</v>
+        <v>1223</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1277</v>
+        <v>1224</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1278</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>753</v>
+        <v>721</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>754</v>
+        <v>722</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>755</v>
+        <v>723</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>756</v>
+        <v>724</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>757</v>
+        <v>725</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>1279</v>
+        <v>1226</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1280</v>
+        <v>1227</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1281</v>
+        <v>1228</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1282</v>
+        <v>1229</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1283</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>1284</v>
+        <v>1231</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1285</v>
+        <v>1232</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1286</v>
+        <v>1233</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1287</v>
+        <v>1234</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1288</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>1289</v>
+        <v>1236</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1290</v>
+        <v>1237</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1291</v>
+        <v>1238</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1292</v>
+        <v>1239</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1293</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>1294</v>
+        <v>1241</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1295</v>
+        <v>1242</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1296</v>
+        <v>1243</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1297</v>
+        <v>1244</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1298</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>1299</v>
+        <v>1246</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1300</v>
+        <v>1247</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1301</v>
+        <v>1248</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1302</v>
+        <v>1249</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1303</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>1304</v>
+        <v>1251</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1305</v>
+        <v>1252</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1306</v>
+        <v>1253</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1307</v>
+        <v>1254</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1308</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>1309</v>
+        <v>1256</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1310</v>
+        <v>1257</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1311</v>
+        <v>1258</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1312</v>
+        <v>1259</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1313</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>1018</v>
+        <v>965</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>954</v>
+        <v>901</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>955</v>
+        <v>902</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>956</v>
+        <v>903</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>957</v>
+        <v>904</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>979</v>
+        <v>926</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1314</v>
+        <v>1261</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>981</v>
+        <v>928</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>982</v>
+        <v>929</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>983</v>
+        <v>930</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>1252</v>
+        <v>1199</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>834</v>
+        <v>802</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1315</v>
+        <v>1262</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>835</v>
+        <v>803</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1316</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>1317</v>
+        <v>1264</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1318</v>
+        <v>1265</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1319</v>
+        <v>1266</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1320</v>
+        <v>1267</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1321</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>1322</v>
+        <v>1269</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1323</v>
+        <v>1270</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1324</v>
+        <v>1271</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1325</v>
+        <v>1272</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1326</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>1327</v>
+      <c r="A106" s="6" t="s">
+        <v>1484</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1328</v>
+        <v>1274</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1329</v>
+        <v>1275</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1330</v>
+        <v>1276</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1328</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>958</v>
+        <v>905</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>959</v>
+        <v>906</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>960</v>
+        <v>907</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>962</v>
+        <v>909</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>1331</v>
+        <v>1277</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1332</v>
+        <v>1278</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1333</v>
+        <v>1279</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1334</v>
+        <v>1280</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1335</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>1336</v>
+        <v>1282</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1337</v>
+        <v>1283</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1338</v>
+        <v>1284</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1339</v>
+        <v>1285</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1340</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>1341</v>
+        <v>1287</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1342</v>
+        <v>1288</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1343</v>
+        <v>1289</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1344</v>
+        <v>1290</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1345</v>
+        <v>1291</v>
       </c>
     </row>
   </sheetData>
@@ -10521,542 +10765,542 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1346</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1347</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1348</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1349</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>1350</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1351</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1352</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1353</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1354</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1355</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>1356</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1357</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>1358</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>1359</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>1360</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1361</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1362</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>1363</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1364</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>1365</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>1366</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>1367</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>1368</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1369</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1370</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1371</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1372</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1373</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1374</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1375</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1376</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1377</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1378</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1379</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>1380</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>1381</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>1382</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>1383</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1384</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>1385</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>1386</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1387</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>1388</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1389</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>1390</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1391</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1392</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1393</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1394</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>1395</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1396</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1397</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1398</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>1399</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>1400</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>1401</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>1402</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>1403</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>1404</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>1405</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>1406</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>1407</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>1408</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>1409</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>1410</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>1411</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>1412</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>1413</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>1414</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1415</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>1416</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>1417</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>1418</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>1419</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>1420</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>1421</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>1422</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>1423</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>1424</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>1425</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>1426</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>1427</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>1428</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>1429</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>1430</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>1431</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>1432</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>1433</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>1434</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>1435</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>1436</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>1437</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>1438</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>1439</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>1440</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>1441</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>1442</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>1443</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="63" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>1444</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>1445</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>1446</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>1447</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>1448</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>1449</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>1450</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>1451</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>1452</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>1453</v>
+        <v>1399</v>
       </c>
     </row>
   </sheetData>

--- a/信息素养/题库.xlsx
+++ b/信息素养/题库.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\系统\桌面\信息素养\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970EFA5E-FCD0-4D4D-B0F0-6AD45AD0B363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F2B6EB-8D0E-4AAB-A79A-6E62AA3A7A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="1515">
   <si>
     <t>题</t>
   </si>
@@ -2642,9 +2642,6 @@
   </si>
   <si>
     <t>第三产业总值534233亿元，增长6.9%。</t>
-  </si>
-  <si>
-    <t>综合卷中综合篇和企业篇汇总表，均包含少量无分组标识的单位数据</t>
   </si>
   <si>
     <t>《第三产业卷》分五篇</t>
@@ -4909,6 +4906,18 @@
   <si>
     <t>请检索名为“一种具有远程航行的无人机”专利，其权利要求书第二条：根据权利要求1所述的具有远程航行的无人机，其特征在于，所述基片为金属（）薄膜。</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合卷中综合篇和企业篇汇总表，均包含少量无分组标识的单位数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5336,7 +5345,7 @@
     </row>
     <row r="2" spans="1:6" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -5348,38 +5357,38 @@
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>1188</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>1190</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -5391,12 +5400,12 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -5411,12 +5420,12 @@
         <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -5431,12 +5440,12 @@
         <v>20</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -5451,12 +5460,12 @@
         <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
@@ -5471,12 +5480,12 @@
         <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>29</v>
@@ -5491,15 +5500,15 @@
         <v>32</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>1201</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1202</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>33</v>
@@ -5511,12 +5520,12 @@
         <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>36</v>
@@ -5531,12 +5540,12 @@
         <v>39</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>41</v>
@@ -5551,32 +5560,32 @@
         <v>44</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>1207</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>1209</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>46</v>
@@ -5591,12 +5600,12 @@
         <v>49</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>50</v>
@@ -5611,12 +5620,12 @@
         <v>53</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>55</v>
@@ -5631,7 +5640,7 @@
         <v>58</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
@@ -5639,24 +5648,24 @@
         <v>59</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>1215</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>1216</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>60</v>
@@ -5671,32 +5680,32 @@
         <v>63</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>1219</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>1220</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>1221</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>65</v>
@@ -5711,12 +5720,12 @@
         <v>68</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>69</v>
@@ -5733,7 +5742,7 @@
     </row>
     <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>73</v>
@@ -5748,7 +5757,7 @@
         <v>76</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="63" x14ac:dyDescent="0.2">
@@ -5768,12 +5777,12 @@
         <v>81</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>82</v>
@@ -5790,7 +5799,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>86</v>
@@ -5805,12 +5814,12 @@
         <v>89</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>90</v>
@@ -5825,12 +5834,12 @@
         <v>93</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>94</v>
@@ -5845,12 +5854,12 @@
         <v>97</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>98</v>
@@ -5882,12 +5891,12 @@
         <v>106</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>107</v>
@@ -5902,12 +5911,12 @@
         <v>110</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>111</v>
@@ -5922,12 +5931,12 @@
         <v>114</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>115</v>
@@ -5942,12 +5951,12 @@
         <v>118</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>119</v>
@@ -5962,7 +5971,7 @@
         <v>122</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="63" x14ac:dyDescent="0.2">
@@ -5976,18 +5985,18 @@
         <v>125</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>127</v>
@@ -6002,12 +6011,12 @@
         <v>130</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>131</v>
@@ -6022,15 +6031,15 @@
         <v>134</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>1237</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>1238</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>135</v>
@@ -6059,12 +6068,12 @@
         <v>142</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="63" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>143</v>
@@ -6081,10 +6090,10 @@
     </row>
     <row r="40" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>148</v>
@@ -6096,12 +6105,12 @@
         <v>150</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>151</v>
@@ -6116,12 +6125,12 @@
         <v>154</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>156</v>
@@ -6130,18 +6139,18 @@
         <v>157</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>160</v>
@@ -6156,12 +6165,12 @@
         <v>163</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="94.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>164</v>
@@ -6178,7 +6187,7 @@
     </row>
     <row r="45" spans="1:6" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>168</v>
@@ -6195,10 +6204,10 @@
     </row>
     <row r="46" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>1248</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>1249</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>171</v>
@@ -6210,12 +6219,12 @@
         <v>173</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>174</v>
@@ -6230,7 +6239,7 @@
         <v>177</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -6250,12 +6259,12 @@
         <v>182</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>183</v>
@@ -6270,7 +6279,7 @@
         <v>186</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
@@ -6290,7 +6299,7 @@
         <v>191</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="63" x14ac:dyDescent="0.2">
@@ -6298,41 +6307,41 @@
         <v>192</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>193</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>194</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>1257</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>195</v>
@@ -6347,12 +6356,12 @@
         <v>198</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>199</v>
@@ -6384,7 +6393,7 @@
         <v>206</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -6404,12 +6413,12 @@
         <v>211</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>212</v>
@@ -6418,18 +6427,18 @@
         <v>213</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>1262</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>1264</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>1265</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>214</v>
@@ -6441,12 +6450,12 @@
         <v>216</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>217</v>
@@ -6463,7 +6472,7 @@
     </row>
     <row r="60" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>221</v>
@@ -8755,7 +8764,7 @@
     </row>
     <row r="195" spans="1:5" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>788</v>
@@ -9026,10 +9035,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A1:B109"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A1:B109"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -9061,7 +9070,7 @@
     </row>
     <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>838</v>
@@ -9076,12 +9085,12 @@
         <v>841</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>842</v>
@@ -9096,7 +9105,7 @@
         <v>845</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -9104,24 +9113,24 @@
         <v>846</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>1273</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>1274</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>1275</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>847</v>
@@ -9136,12 +9145,12 @@
         <v>850</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>851</v>
@@ -9156,27 +9165,27 @@
         <v>854</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>1281</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>1282</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>1283</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>1284</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>1285</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -9184,19 +9193,19 @@
         <v>855</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>1287</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>1288</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>1289</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>1290</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -9216,18 +9225,18 @@
         <v>860</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>1291</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>1292</v>
-      </c>
       <c r="C10" s="8" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>861</v>
@@ -9236,18 +9245,18 @@
         <v>862</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>863</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>627</v>
@@ -9256,15 +9265,15 @@
         <v>628</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>1298</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>1299</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>864</v>
@@ -9276,84 +9285,87 @@
         <v>866</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>1300</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="6" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>869</v>
+      <c r="F13" s="6" t="s">
+        <v>1513</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>873</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>1280</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>878</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>882</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="63" x14ac:dyDescent="0.2">
@@ -9361,406 +9373,409 @@
         <v>192</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>1307</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>1305</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>1312</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>886</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>891</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="63" hidden="1" x14ac:dyDescent="0.2">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>1315</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>1449</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>1450</v>
+      <c r="F21" s="6" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>1318</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>1319</v>
-      </c>
       <c r="C22" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>894</v>
-      </c>
       <c r="F22" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>898</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>1322</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>1323</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>1325</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>1326</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>1327</v>
-      </c>
       <c r="C25" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>900</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>905</v>
-      </c>
       <c r="F26" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>909</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>913</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>1330</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>1331</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>1332</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>1333</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>1334</v>
-      </c>
       <c r="F29" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>919</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>1335</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>1336</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>1338</v>
-      </c>
       <c r="F31" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>925</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>929</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>933</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>934</v>
-      </c>
       <c r="F34" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>1341</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>1342</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="3" t="s">
         <v>1343</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>1344</v>
-      </c>
       <c r="F35" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>938</v>
-      </c>
       <c r="F36" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>942</v>
-      </c>
       <c r="F37" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>755</v>
@@ -9769,192 +9784,192 @@
         <v>757</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>943</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>945</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>946</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>400</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>948</v>
-      </c>
       <c r="F39" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>952</v>
-      </c>
       <c r="F40" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>956</v>
-      </c>
       <c r="F41" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>1351</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>1352</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>1353</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>1354</v>
-      </c>
       <c r="E42" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>961</v>
-      </c>
       <c r="F43" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>964</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>1357</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>968</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>1358</v>
-      </c>
       <c r="F45" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>1359</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>969</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>1361</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>1362</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>1363</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>1364</v>
-      </c>
       <c r="F47" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>241</v>
@@ -9966,72 +9981,72 @@
         <v>400</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>978</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>983</v>
-      </c>
       <c r="F50" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="E51" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>987</v>
-      </c>
       <c r="F51" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>400</v>
@@ -10043,109 +10058,109 @@
         <v>241</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>625</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>995</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>997</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>998</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>242</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>1371</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>1372</v>
-      </c>
       <c r="C56" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>1003</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="E57" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>1005</v>
-      </c>
       <c r="F57" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>440</v>
@@ -10160,557 +10175,557 @@
         <v>443</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="D59" s="2" t="s">
         <v>1008</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>1009</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>181</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>1012</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>1018</v>
-      </c>
       <c r="F61" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>1019</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>1375</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>1376</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>1377</v>
-      </c>
       <c r="F62" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="C63" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>1023</v>
-      </c>
       <c r="E63" s="4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>1379</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>1380</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="3" t="s">
         <v>1381</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="5" t="s">
         <v>1382</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>1383</v>
-      </c>
       <c r="F64" s="6" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>1024</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>1027</v>
-      </c>
       <c r="F65" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="E66" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>1032</v>
-      </c>
       <c r="F66" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>1033</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>1037</v>
-      </c>
       <c r="F67" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>1040</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="E68" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>1042</v>
-      </c>
       <c r="F68" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>1044</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>1045</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>1046</v>
-      </c>
       <c r="F69" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>1386</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="C70" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>1387</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>1388</v>
-      </c>
       <c r="F70" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>1052</v>
-      </c>
       <c r="F71" s="6" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>1055</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>1391</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>1392</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>206</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>1059</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>1060</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="D74" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="E74" s="7" t="s">
         <v>1062</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>1063</v>
-      </c>
       <c r="F74" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B75" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>1067</v>
-      </c>
       <c r="F75" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>1068</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="D76" s="7" t="s">
         <v>1069</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="E76" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>1071</v>
-      </c>
       <c r="F76" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>1416</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="C77" s="6" t="s">
         <v>1417</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="D77" s="8" t="s">
         <v>1418</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="E77" s="8" t="s">
         <v>1419</v>
       </c>
-      <c r="E77" s="8" t="s">
-        <v>1420</v>
-      </c>
       <c r="F77" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B78" s="8" t="s">
         <v>1395</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>1396</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="D78" s="8" t="s">
         <v>1397</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="E78" s="8" t="s">
         <v>1398</v>
       </c>
-      <c r="E78" s="8" t="s">
-        <v>1399</v>
-      </c>
       <c r="F78" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>1400</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>1401</v>
-      </c>
       <c r="F79" s="6" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>1402</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>1403</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>1404</v>
-      </c>
       <c r="D80" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>1075</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B81" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>1077</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="D81" s="7" t="s">
         <v>1078</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="E81" s="7" t="s">
         <v>1079</v>
       </c>
-      <c r="E81" s="7" t="s">
-        <v>1080</v>
-      </c>
       <c r="F81" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B82" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="D82" s="7" t="s">
         <v>1082</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="E82" s="7" t="s">
         <v>1083</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>1084</v>
-      </c>
       <c r="F82" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>1085</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="D83" s="7" t="s">
         <v>1086</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="E83" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>1088</v>
-      </c>
       <c r="F83" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B84" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>1089</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="D84" s="7" t="s">
         <v>1090</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="E84" s="7" t="s">
         <v>1091</v>
       </c>
-      <c r="E84" s="7" t="s">
-        <v>1092</v>
-      </c>
       <c r="F84" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>1409</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>1410</v>
-      </c>
       <c r="C85" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B86" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>1096</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>1097</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>80</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>719</v>
@@ -10719,258 +10734,258 @@
         <v>720</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>1099</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>1100</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="D88" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="E88" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>1103</v>
-      </c>
       <c r="F88" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>1104</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="D89" s="7" t="s">
         <v>1105</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="E89" s="7" t="s">
         <v>1106</v>
       </c>
-      <c r="E89" s="7" t="s">
-        <v>1107</v>
-      </c>
       <c r="F89" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>1110</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>1112</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>1113</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>1114</v>
-      </c>
       <c r="D91" s="6" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E91" s="8" t="s">
         <v>1422</v>
       </c>
-      <c r="E91" s="8" t="s">
-        <v>1423</v>
-      </c>
       <c r="F91" s="6" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>1117</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B93" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>1119</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="D93" s="7" t="s">
         <v>1120</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="E93" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>1122</v>
-      </c>
       <c r="F93" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B96" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>1131</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="D96" s="7" t="s">
         <v>1132</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="E96" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>1134</v>
-      </c>
       <c r="F96" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B97" s="8" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>1429</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="D97" s="8" t="s">
         <v>1430</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>1431</v>
-      </c>
       <c r="E97" s="8" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>1432</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>1433</v>
-      </c>
       <c r="C98" s="8" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>1440</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="E98" s="6" t="s">
         <v>1441</v>
       </c>
-      <c r="E98" s="6" t="s">
-        <v>1442</v>
-      </c>
       <c r="F98" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B99" s="7" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="D99" s="7" t="s">
         <v>1136</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="E99" s="7" t="s">
         <v>1137</v>
       </c>
-      <c r="E99" s="7" t="s">
-        <v>1138</v>
-      </c>
       <c r="F99" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>1435</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="C100" s="6" t="s">
         <v>1436</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="D100" s="8" t="s">
         <v>1437</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="E100" s="8" t="s">
         <v>1438</v>
       </c>
-      <c r="E100" s="8" t="s">
-        <v>1439</v>
-      </c>
       <c r="F100" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
   </sheetData>
@@ -11012,725 +11027,725 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1446</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>1444</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>1461</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>1466</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="63" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
   </sheetData>
@@ -11783,9 +11798,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="378" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -11797,38 +11812,38 @@
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="267.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="283.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="141.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1192</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="267.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1193</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -11840,12 +11855,12 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="110.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>1195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="283.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>1196</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -11860,12 +11875,12 @@
         <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="110.25" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -11880,12 +11895,12 @@
         <v>20</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="330.75" x14ac:dyDescent="0.2">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -11900,12 +11915,12 @@
         <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
@@ -11920,12 +11935,12 @@
         <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>29</v>
@@ -11940,15 +11955,15 @@
         <v>32</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="236.25" x14ac:dyDescent="0.2">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="189" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>1201</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1202</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>33</v>
@@ -11960,12 +11975,12 @@
         <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="236.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>36</v>
@@ -11980,12 +11995,12 @@
         <v>39</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="157.5" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>41</v>
@@ -12000,32 +12015,32 @@
         <v>44</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="157.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>1205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="189" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>1206</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>1207</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>1209</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>1210</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>46</v>
@@ -12040,12 +12055,12 @@
         <v>49</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="110.25" x14ac:dyDescent="0.2">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>50</v>
@@ -12060,12 +12075,12 @@
         <v>53</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="204.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>55</v>
@@ -12080,32 +12095,32 @@
         <v>58</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>1215</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="3" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="63" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>1216</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="126" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>1217</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>60</v>
@@ -12120,32 +12135,32 @@
         <v>63</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="157.5" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>1219</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>1220</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>1221</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="189" x14ac:dyDescent="0.2">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>65</v>
@@ -12160,12 +12175,12 @@
         <v>68</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="157.5" x14ac:dyDescent="0.2">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>73</v>
@@ -12180,10 +12195,10 @@
         <v>76</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
@@ -12200,12 +12215,12 @@
         <v>81</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="63" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>86</v>
@@ -12220,12 +12235,12 @@
         <v>89</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="157.5" x14ac:dyDescent="0.2">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>90</v>
@@ -12240,12 +12255,12 @@
         <v>93</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="157.5" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>94</v>
@@ -12260,10 +12275,10 @@
         <v>97</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="362.25" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>102</v>
       </c>
@@ -12280,12 +12295,12 @@
         <v>106</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="63" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>107</v>
@@ -12300,12 +12315,12 @@
         <v>110</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>111</v>
@@ -12320,12 +12335,12 @@
         <v>114</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="63" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>115</v>
@@ -12340,12 +12355,12 @@
         <v>118</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="252" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>119</v>
@@ -12360,10 +12375,10 @@
         <v>122</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="346.5" x14ac:dyDescent="0.2">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>123</v>
       </c>
@@ -12374,18 +12389,18 @@
         <v>125</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="63" x14ac:dyDescent="0.2">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>127</v>
@@ -12400,12 +12415,12 @@
         <v>130</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="267.75" x14ac:dyDescent="0.2">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>131</v>
@@ -12420,10 +12435,10 @@
         <v>134</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>138</v>
       </c>
@@ -12440,15 +12455,15 @@
         <v>142</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="110.25" x14ac:dyDescent="0.2">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>148</v>
@@ -12460,12 +12475,12 @@
         <v>150</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="267.75" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>151</v>
@@ -12480,12 +12495,12 @@
         <v>154</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="189" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>156</v>
@@ -12494,18 +12509,18 @@
         <v>157</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>160</v>
@@ -12520,15 +12535,15 @@
         <v>163</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="189" x14ac:dyDescent="0.2">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>1248</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>1249</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>171</v>
@@ -12540,12 +12555,12 @@
         <v>173</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="126" x14ac:dyDescent="0.2">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>174</v>
@@ -12560,10 +12575,10 @@
         <v>177</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>178</v>
       </c>
@@ -12580,12 +12595,12 @@
         <v>182</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="126" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>183</v>
@@ -12600,10 +12615,10 @@
         <v>186</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="173.25" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>187</v>
       </c>
@@ -12620,32 +12635,32 @@
         <v>191</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="252" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="189" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>193</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>194</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="157.5" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>195</v>
@@ -12660,10 +12675,10 @@
         <v>198</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>203</v>
       </c>
@@ -12680,10 +12695,10 @@
         <v>206</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>207</v>
       </c>
@@ -12700,15 +12715,15 @@
         <v>211</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="126" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>1264</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>1265</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>214</v>
@@ -12720,7 +12735,7 @@
         <v>216</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
   </sheetData>
@@ -12761,7 +12776,7 @@
     </row>
     <row r="2" spans="1:6" ht="204.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>838</v>
@@ -12776,12 +12791,12 @@
         <v>841</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>842</v>
@@ -12796,7 +12811,7 @@
         <v>845</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
@@ -12804,24 +12819,24 @@
         <v>846</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>1273</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>1274</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>1275</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="173.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>847</v>
@@ -12836,12 +12851,12 @@
         <v>850</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>851</v>
@@ -12856,27 +12871,27 @@
         <v>854</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>1281</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>1282</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>1283</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>1284</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>1285</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
@@ -12884,19 +12899,19 @@
         <v>855</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>1287</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>1288</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>1289</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>1290</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.2">
@@ -12916,18 +12931,18 @@
         <v>860</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="252" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>1291</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>1292</v>
-      </c>
       <c r="C10" s="8" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>861</v>
@@ -12936,18 +12951,18 @@
         <v>862</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>863</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>627</v>
@@ -12956,15 +12971,15 @@
         <v>628</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>1298</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>1299</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>864</v>
@@ -12976,67 +12991,67 @@
         <v>866</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="236.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>873</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>878</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="204.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>882</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="252" x14ac:dyDescent="0.2">
@@ -13044,464 +13059,464 @@
         <v>192</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>1307</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>1305</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>886</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>891</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="236.25" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>1318</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>1319</v>
-      </c>
       <c r="C19" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>894</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="126" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>898</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>1322</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>1323</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>1325</v>
-      </c>
       <c r="F21" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="189" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>905</v>
-      </c>
       <c r="F22" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>1330</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>1331</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>1332</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>1333</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>1334</v>
-      </c>
       <c r="F23" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>919</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>1335</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>1336</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>1338</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>925</v>
-      </c>
       <c r="F26" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="173.25" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>933</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>934</v>
-      </c>
       <c r="F27" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>1341</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>1342</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>1343</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>1344</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>938</v>
-      </c>
       <c r="F29" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>942</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="126" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>945</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>946</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>400</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>948</v>
-      </c>
       <c r="F31" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>952</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>956</v>
-      </c>
       <c r="F33" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="173.25" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>1351</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>1352</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>1353</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>1354</v>
-      </c>
       <c r="E34" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="189" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>961</v>
-      </c>
       <c r="F35" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>1357</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>968</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>1358</v>
-      </c>
       <c r="F36" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>1359</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>969</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>1361</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>1362</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>1363</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>1364</v>
-      </c>
       <c r="F38" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>241</v>
@@ -13513,55 +13528,55 @@
         <v>400</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>983</v>
-      </c>
       <c r="F40" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>987</v>
-      </c>
       <c r="F41" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>400</v>
@@ -13573,75 +13588,75 @@
         <v>241</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>997</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>998</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>242</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>1371</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>1372</v>
-      </c>
       <c r="C44" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>1003</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>1005</v>
-      </c>
       <c r="F45" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>440</v>
@@ -13656,647 +13671,647 @@
         <v>443</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="D47" s="2" t="s">
         <v>1008</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>1009</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>181</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>1018</v>
-      </c>
       <c r="F48" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>1019</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>1375</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>1376</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>1377</v>
-      </c>
       <c r="F49" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="C50" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>1023</v>
-      </c>
       <c r="E50" s="4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>1379</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>1380</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="3" t="s">
         <v>1381</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="5" t="s">
         <v>1382</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>1383</v>
-      </c>
       <c r="F51" s="6" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="189" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>1024</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>1027</v>
-      </c>
       <c r="F52" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="E53" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>1032</v>
-      </c>
       <c r="F53" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>1033</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>1037</v>
-      </c>
       <c r="F54" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="189" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>1040</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="E55" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>1042</v>
-      </c>
       <c r="F55" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>1044</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>1045</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>1046</v>
-      </c>
       <c r="F56" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>1386</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="C57" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>1387</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>1388</v>
-      </c>
       <c r="F57" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="D58" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>1052</v>
-      </c>
       <c r="F58" s="6" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="126" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>1059</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>1060</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="E59" s="7" t="s">
         <v>1062</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>1063</v>
-      </c>
       <c r="F59" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="173.25" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>1067</v>
-      </c>
       <c r="F60" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>1068</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>1069</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="E61" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>1071</v>
-      </c>
       <c r="F61" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>1416</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="C62" s="6" t="s">
         <v>1417</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="D62" s="8" t="s">
         <v>1418</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>1419</v>
       </c>
-      <c r="E62" s="8" t="s">
-        <v>1420</v>
-      </c>
       <c r="F62" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>1395</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>1396</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>1397</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="E63" s="8" t="s">
         <v>1398</v>
       </c>
-      <c r="E63" s="8" t="s">
-        <v>1399</v>
-      </c>
       <c r="F63" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="252" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>1400</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>1401</v>
-      </c>
       <c r="F64" s="6" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B65" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>1077</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="D65" s="7" t="s">
         <v>1078</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="E65" s="7" t="s">
         <v>1079</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>1080</v>
-      </c>
       <c r="F65" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="D66" s="7" t="s">
         <v>1082</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="E66" s="7" t="s">
         <v>1083</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>1084</v>
-      </c>
       <c r="F66" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>1085</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="D67" s="7" t="s">
         <v>1086</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="E67" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>1088</v>
-      </c>
       <c r="F67" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>1089</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="D68" s="7" t="s">
         <v>1090</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="E68" s="7" t="s">
         <v>1091</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>1092</v>
-      </c>
       <c r="F68" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="126" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>1096</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>1097</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>80</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>1099</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>1100</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="E70" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>1103</v>
-      </c>
       <c r="F70" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>1104</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="D71" s="7" t="s">
         <v>1105</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="E71" s="7" t="s">
         <v>1106</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>1107</v>
-      </c>
       <c r="F71" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="126" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>1112</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>1113</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>1114</v>
-      </c>
       <c r="D72" s="6" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>1422</v>
       </c>
-      <c r="E72" s="8" t="s">
-        <v>1423</v>
-      </c>
       <c r="F72" s="6" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="173.25" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>1119</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="D73" s="7" t="s">
         <v>1120</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="E73" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>1122</v>
-      </c>
       <c r="F73" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="173.25" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>1131</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="D74" s="7" t="s">
         <v>1132</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="E74" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>1134</v>
-      </c>
       <c r="F74" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="126" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>1429</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="D75" s="8" t="s">
         <v>1430</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>1431</v>
-      </c>
       <c r="E75" s="8" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>1432</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>1433</v>
-      </c>
       <c r="C76" s="8" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>1440</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>1441</v>
       </c>
-      <c r="E76" s="6" t="s">
-        <v>1442</v>
-      </c>
       <c r="F76" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="362.25" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B77" s="7" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="D77" s="7" t="s">
         <v>1136</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="E77" s="7" t="s">
         <v>1137</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>1138</v>
-      </c>
       <c r="F77" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B78" s="8" t="s">
         <v>1435</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="C78" s="6" t="s">
         <v>1436</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="D78" s="8" t="s">
         <v>1437</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="E78" s="8" t="s">
         <v>1438</v>
       </c>
-      <c r="E78" s="8" t="s">
-        <v>1439</v>
-      </c>
       <c r="F78" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
   </sheetData>
@@ -14309,7 +14324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B851D2AC-2D80-4940-9EB9-5C0BF5E511A5}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
@@ -14325,490 +14340,490 @@
     </row>
     <row r="2" spans="1:2" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1446</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="252" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>1444</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="173.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="126" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="126" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="126" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>1461</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="236.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="204.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>1466</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="189" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="126" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="189" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="189" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="173.25" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="252" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="189" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="173.25" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="220.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="236.25" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="204.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="220.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="283.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="236.25" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="189" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="252" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="204.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="189" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="173.25" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="189" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="189" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="393.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="126" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
   </sheetData>
